--- a/docs/Приложение для управления задачами чек-лист.xlsx
+++ b/docs/Приложение для управления задачами чек-лист.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mh3DEZSyAqkmnf4Yd4+yFQ03U177Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miVUq1JJGCTBUwl6dx8DWPKjOCd+g=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="171">
   <si>
     <t>&lt;Название проекта&gt; - Чек-лист для &lt;цель/объект тестирования&gt;</t>
   </si>
@@ -2598,7 +2598,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" hidden="1" outlineLevel="1">
+    <row r="15" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A15" s="22" t="s">
         <v>39</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" hidden="1" outlineLevel="1">
+    <row r="17" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A17" s="22" t="s">
         <v>41</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="27"/>
     </row>
-    <row r="19" hidden="1" outlineLevel="1">
+    <row r="19" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A19" s="22" t="s">
         <v>43</v>
       </c>
@@ -9438,129 +9438,129 @@
       <c r="Y242" s="30"/>
       <c r="Z242" s="30"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1" collapsed="1">
-      <c r="A243" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B243" s="20"/>
-      <c r="C243" s="20"/>
-      <c r="D243" s="20"/>
-      <c r="E243" s="20"/>
-      <c r="F243" s="20"/>
-      <c r="G243" s="20"/>
-      <c r="H243" s="20"/>
-      <c r="I243" s="20"/>
-      <c r="J243" s="20"/>
-      <c r="K243" s="20"/>
-      <c r="L243" s="20"/>
-      <c r="M243" s="20"/>
-      <c r="N243" s="20"/>
-      <c r="O243" s="20"/>
-      <c r="P243" s="20"/>
-      <c r="Q243" s="20"/>
-      <c r="R243" s="20"/>
-      <c r="S243" s="20"/>
-      <c r="T243" s="20"/>
-      <c r="U243" s="20"/>
-      <c r="V243" s="20"/>
-      <c r="W243" s="20"/>
-      <c r="X243" s="20"/>
-      <c r="Y243" s="20"/>
-      <c r="Z243" s="20"/>
-    </row>
-    <row r="244" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="A244" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B244" s="22"/>
-      <c r="C244" s="22"/>
-      <c r="D244" s="22"/>
-      <c r="E244" s="22"/>
-      <c r="F244" s="22"/>
-      <c r="G244" s="22"/>
-      <c r="H244" s="22"/>
-      <c r="I244" s="22"/>
-      <c r="J244" s="22"/>
-      <c r="K244" s="22"/>
-      <c r="L244" s="22"/>
-      <c r="M244" s="22"/>
-      <c r="N244" s="22"/>
-      <c r="O244" s="22"/>
-      <c r="P244" s="22"/>
-      <c r="Q244" s="22"/>
-      <c r="R244" s="22"/>
-      <c r="S244" s="22"/>
-      <c r="T244" s="22"/>
-      <c r="U244" s="22"/>
-      <c r="V244" s="22"/>
-      <c r="W244" s="22"/>
-      <c r="X244" s="22"/>
-      <c r="Y244" s="22"/>
-      <c r="Z244" s="22"/>
-    </row>
-    <row r="245" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
-      <c r="A245" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B245" s="23"/>
-      <c r="C245" s="23"/>
-      <c r="D245" s="23"/>
-      <c r="E245" s="23"/>
-      <c r="F245" s="23"/>
-      <c r="G245" s="23"/>
-      <c r="H245" s="23"/>
-      <c r="I245" s="23"/>
-      <c r="J245" s="23"/>
-      <c r="K245" s="23"/>
-      <c r="L245" s="23"/>
-      <c r="M245" s="23"/>
-      <c r="N245" s="23"/>
-      <c r="O245" s="23"/>
-      <c r="P245" s="23"/>
-      <c r="Q245" s="23"/>
-      <c r="R245" s="23"/>
-      <c r="S245" s="23"/>
-      <c r="T245" s="23"/>
-      <c r="U245" s="23"/>
-      <c r="V245" s="23"/>
-      <c r="W245" s="23"/>
-      <c r="X245" s="23"/>
-      <c r="Y245" s="23"/>
-      <c r="Z245" s="23"/>
-    </row>
-    <row r="246" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
-      <c r="A246" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B246" s="30"/>
-      <c r="C246" s="30"/>
-      <c r="D246" s="30"/>
-      <c r="E246" s="30"/>
-      <c r="F246" s="30"/>
-      <c r="G246" s="30"/>
-      <c r="H246" s="30"/>
-      <c r="I246" s="30"/>
-      <c r="J246" s="30"/>
-      <c r="K246" s="30"/>
-      <c r="L246" s="30"/>
-      <c r="M246" s="30"/>
-      <c r="N246" s="30"/>
-      <c r="O246" s="30"/>
-      <c r="P246" s="30"/>
-      <c r="Q246" s="30"/>
-      <c r="R246" s="30"/>
-      <c r="S246" s="30"/>
-      <c r="T246" s="30"/>
-      <c r="U246" s="30"/>
-      <c r="V246" s="30"/>
-      <c r="W246" s="30"/>
-      <c r="X246" s="30"/>
-      <c r="Y246" s="30"/>
-      <c r="Z246" s="30"/>
+    <row r="243" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
+      <c r="A243" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B243" s="23"/>
+      <c r="C243" s="23"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="23"/>
+      <c r="F243" s="23"/>
+      <c r="G243" s="23"/>
+      <c r="H243" s="23"/>
+      <c r="I243" s="23"/>
+      <c r="J243" s="23"/>
+      <c r="K243" s="23"/>
+      <c r="L243" s="23"/>
+      <c r="M243" s="23"/>
+      <c r="N243" s="23"/>
+      <c r="O243" s="23"/>
+      <c r="P243" s="23"/>
+      <c r="Q243" s="23"/>
+      <c r="R243" s="23"/>
+      <c r="S243" s="23"/>
+      <c r="T243" s="23"/>
+      <c r="U243" s="23"/>
+      <c r="V243" s="23"/>
+      <c r="W243" s="23"/>
+      <c r="X243" s="23"/>
+      <c r="Y243" s="23"/>
+      <c r="Z243" s="23"/>
+    </row>
+    <row r="244" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+      <c r="A244" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B244" s="30"/>
+      <c r="C244" s="30"/>
+      <c r="D244" s="30"/>
+      <c r="E244" s="30"/>
+      <c r="F244" s="30"/>
+      <c r="G244" s="30"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="30"/>
+      <c r="K244" s="30"/>
+      <c r="L244" s="30"/>
+      <c r="M244" s="30"/>
+      <c r="N244" s="30"/>
+      <c r="O244" s="30"/>
+      <c r="P244" s="30"/>
+      <c r="Q244" s="30"/>
+      <c r="R244" s="30"/>
+      <c r="S244" s="30"/>
+      <c r="T244" s="30"/>
+      <c r="U244" s="30"/>
+      <c r="V244" s="30"/>
+      <c r="W244" s="30"/>
+      <c r="X244" s="30"/>
+      <c r="Y244" s="30"/>
+      <c r="Z244" s="30"/>
+    </row>
+    <row r="245" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+      <c r="A245" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B245" s="30"/>
+      <c r="C245" s="30"/>
+      <c r="D245" s="30"/>
+      <c r="E245" s="30"/>
+      <c r="F245" s="30"/>
+      <c r="G245" s="30"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="30"/>
+      <c r="J245" s="30"/>
+      <c r="K245" s="30"/>
+      <c r="L245" s="30"/>
+      <c r="M245" s="30"/>
+      <c r="N245" s="30"/>
+      <c r="O245" s="30"/>
+      <c r="P245" s="30"/>
+      <c r="Q245" s="30"/>
+      <c r="R245" s="30"/>
+      <c r="S245" s="30"/>
+      <c r="T245" s="30"/>
+      <c r="U245" s="30"/>
+      <c r="V245" s="30"/>
+      <c r="W245" s="30"/>
+      <c r="X245" s="30"/>
+      <c r="Y245" s="30"/>
+      <c r="Z245" s="30"/>
+    </row>
+    <row r="246" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
+      <c r="A246" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B246" s="23"/>
+      <c r="C246" s="23"/>
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23"/>
+      <c r="G246" s="23"/>
+      <c r="H246" s="23"/>
+      <c r="I246" s="23"/>
+      <c r="J246" s="23"/>
+      <c r="K246" s="23"/>
+      <c r="L246" s="23"/>
+      <c r="M246" s="23"/>
+      <c r="N246" s="23"/>
+      <c r="O246" s="23"/>
+      <c r="P246" s="23"/>
+      <c r="Q246" s="23"/>
+      <c r="R246" s="23"/>
+      <c r="S246" s="23"/>
+      <c r="T246" s="23"/>
+      <c r="U246" s="23"/>
+      <c r="V246" s="23"/>
+      <c r="W246" s="23"/>
+      <c r="X246" s="23"/>
+      <c r="Y246" s="23"/>
+      <c r="Z246" s="23"/>
     </row>
     <row r="247" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A247" s="30" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="B247" s="30"/>
       <c r="C247" s="30"/>
@@ -9588,129 +9588,129 @@
       <c r="Y247" s="30"/>
       <c r="Z247" s="30"/>
     </row>
-    <row r="248" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
-      <c r="A248" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B248" s="30"/>
-      <c r="C248" s="30"/>
-      <c r="D248" s="30"/>
-      <c r="E248" s="30"/>
-      <c r="F248" s="30"/>
-      <c r="G248" s="30"/>
-      <c r="H248" s="30"/>
-      <c r="I248" s="30"/>
-      <c r="J248" s="30"/>
-      <c r="K248" s="30"/>
-      <c r="L248" s="30"/>
-      <c r="M248" s="30"/>
-      <c r="N248" s="30"/>
-      <c r="O248" s="30"/>
-      <c r="P248" s="30"/>
-      <c r="Q248" s="30"/>
-      <c r="R248" s="30"/>
-      <c r="S248" s="30"/>
-      <c r="T248" s="30"/>
-      <c r="U248" s="30"/>
-      <c r="V248" s="30"/>
-      <c r="W248" s="30"/>
-      <c r="X248" s="30"/>
-      <c r="Y248" s="30"/>
-      <c r="Z248" s="30"/>
-    </row>
-    <row r="249" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
-      <c r="A249" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B249" s="30"/>
-      <c r="C249" s="30"/>
-      <c r="D249" s="30"/>
-      <c r="E249" s="30"/>
-      <c r="F249" s="30"/>
-      <c r="G249" s="30"/>
-      <c r="H249" s="30"/>
-      <c r="I249" s="30"/>
-      <c r="J249" s="30"/>
-      <c r="K249" s="30"/>
-      <c r="L249" s="30"/>
-      <c r="M249" s="30"/>
-      <c r="N249" s="30"/>
-      <c r="O249" s="30"/>
-      <c r="P249" s="30"/>
-      <c r="Q249" s="30"/>
-      <c r="R249" s="30"/>
-      <c r="S249" s="30"/>
-      <c r="T249" s="30"/>
-      <c r="U249" s="30"/>
-      <c r="V249" s="30"/>
-      <c r="W249" s="30"/>
-      <c r="X249" s="30"/>
-      <c r="Y249" s="30"/>
-      <c r="Z249" s="30"/>
-    </row>
-    <row r="250" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
-      <c r="A250" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B250" s="30"/>
-      <c r="C250" s="30"/>
-      <c r="D250" s="30"/>
-      <c r="E250" s="30"/>
-      <c r="F250" s="30"/>
-      <c r="G250" s="30"/>
-      <c r="H250" s="30"/>
-      <c r="I250" s="30"/>
-      <c r="J250" s="30"/>
-      <c r="K250" s="30"/>
-      <c r="L250" s="30"/>
-      <c r="M250" s="30"/>
-      <c r="N250" s="30"/>
-      <c r="O250" s="30"/>
-      <c r="P250" s="30"/>
-      <c r="Q250" s="30"/>
-      <c r="R250" s="30"/>
-      <c r="S250" s="30"/>
-      <c r="T250" s="30"/>
-      <c r="U250" s="30"/>
-      <c r="V250" s="30"/>
-      <c r="W250" s="30"/>
-      <c r="X250" s="30"/>
-      <c r="Y250" s="30"/>
-      <c r="Z250" s="30"/>
-    </row>
-    <row r="251" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
-      <c r="A251" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B251" s="23"/>
-      <c r="C251" s="23"/>
-      <c r="D251" s="23"/>
-      <c r="E251" s="23"/>
-      <c r="F251" s="23"/>
-      <c r="G251" s="23"/>
-      <c r="H251" s="23"/>
-      <c r="I251" s="23"/>
-      <c r="J251" s="23"/>
-      <c r="K251" s="23"/>
-      <c r="L251" s="23"/>
-      <c r="M251" s="23"/>
-      <c r="N251" s="23"/>
-      <c r="O251" s="23"/>
-      <c r="P251" s="23"/>
-      <c r="Q251" s="23"/>
-      <c r="R251" s="23"/>
-      <c r="S251" s="23"/>
-      <c r="T251" s="23"/>
-      <c r="U251" s="23"/>
-      <c r="V251" s="23"/>
-      <c r="W251" s="23"/>
-      <c r="X251" s="23"/>
-      <c r="Y251" s="23"/>
-      <c r="Z251" s="23"/>
+    <row r="248" ht="14.25" customHeight="1" collapsed="1">
+      <c r="A248" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="20"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="20"/>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="20"/>
+      <c r="K248" s="20"/>
+      <c r="L248" s="20"/>
+      <c r="M248" s="20"/>
+      <c r="N248" s="20"/>
+      <c r="O248" s="20"/>
+      <c r="P248" s="20"/>
+      <c r="Q248" s="20"/>
+      <c r="R248" s="20"/>
+      <c r="S248" s="20"/>
+      <c r="T248" s="20"/>
+      <c r="U248" s="20"/>
+      <c r="V248" s="20"/>
+      <c r="W248" s="20"/>
+      <c r="X248" s="20"/>
+      <c r="Y248" s="20"/>
+      <c r="Z248" s="20"/>
+    </row>
+    <row r="249" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A249" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B249" s="22"/>
+      <c r="C249" s="22"/>
+      <c r="D249" s="22"/>
+      <c r="E249" s="22"/>
+      <c r="F249" s="22"/>
+      <c r="G249" s="22"/>
+      <c r="H249" s="22"/>
+      <c r="I249" s="22"/>
+      <c r="J249" s="22"/>
+      <c r="K249" s="22"/>
+      <c r="L249" s="22"/>
+      <c r="M249" s="22"/>
+      <c r="N249" s="22"/>
+      <c r="O249" s="22"/>
+      <c r="P249" s="22"/>
+      <c r="Q249" s="22"/>
+      <c r="R249" s="22"/>
+      <c r="S249" s="22"/>
+      <c r="T249" s="22"/>
+      <c r="U249" s="22"/>
+      <c r="V249" s="22"/>
+      <c r="W249" s="22"/>
+      <c r="X249" s="22"/>
+      <c r="Y249" s="22"/>
+      <c r="Z249" s="22"/>
+    </row>
+    <row r="250" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
+      <c r="A250" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B250" s="23"/>
+      <c r="C250" s="23"/>
+      <c r="D250" s="23"/>
+      <c r="E250" s="23"/>
+      <c r="F250" s="23"/>
+      <c r="G250" s="23"/>
+      <c r="H250" s="23"/>
+      <c r="I250" s="23"/>
+      <c r="J250" s="23"/>
+      <c r="K250" s="23"/>
+      <c r="L250" s="23"/>
+      <c r="M250" s="23"/>
+      <c r="N250" s="23"/>
+      <c r="O250" s="23"/>
+      <c r="P250" s="23"/>
+      <c r="Q250" s="23"/>
+      <c r="R250" s="23"/>
+      <c r="S250" s="23"/>
+      <c r="T250" s="23"/>
+      <c r="U250" s="23"/>
+      <c r="V250" s="23"/>
+      <c r="W250" s="23"/>
+      <c r="X250" s="23"/>
+      <c r="Y250" s="23"/>
+      <c r="Z250" s="23"/>
+    </row>
+    <row r="251" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+      <c r="A251" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B251" s="30"/>
+      <c r="C251" s="30"/>
+      <c r="D251" s="30"/>
+      <c r="E251" s="30"/>
+      <c r="F251" s="30"/>
+      <c r="G251" s="30"/>
+      <c r="H251" s="30"/>
+      <c r="I251" s="30"/>
+      <c r="J251" s="30"/>
+      <c r="K251" s="30"/>
+      <c r="L251" s="30"/>
+      <c r="M251" s="30"/>
+      <c r="N251" s="30"/>
+      <c r="O251" s="30"/>
+      <c r="P251" s="30"/>
+      <c r="Q251" s="30"/>
+      <c r="R251" s="30"/>
+      <c r="S251" s="30"/>
+      <c r="T251" s="30"/>
+      <c r="U251" s="30"/>
+      <c r="V251" s="30"/>
+      <c r="W251" s="30"/>
+      <c r="X251" s="30"/>
+      <c r="Y251" s="30"/>
+      <c r="Z251" s="30"/>
     </row>
     <row r="252" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A252" s="30" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="B252" s="30"/>
       <c r="C252" s="30"/>
@@ -9738,39 +9738,39 @@
       <c r="Y252" s="30"/>
       <c r="Z252" s="30"/>
     </row>
-    <row r="253" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
-      <c r="A253" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B253" s="23"/>
-      <c r="C253" s="23"/>
-      <c r="D253" s="23"/>
-      <c r="E253" s="23"/>
-      <c r="F253" s="23"/>
-      <c r="G253" s="23"/>
-      <c r="H253" s="23"/>
-      <c r="I253" s="23"/>
-      <c r="J253" s="23"/>
-      <c r="K253" s="23"/>
-      <c r="L253" s="23"/>
-      <c r="M253" s="23"/>
-      <c r="N253" s="23"/>
-      <c r="O253" s="23"/>
-      <c r="P253" s="23"/>
-      <c r="Q253" s="23"/>
-      <c r="R253" s="23"/>
-      <c r="S253" s="23"/>
-      <c r="T253" s="23"/>
-      <c r="U253" s="23"/>
-      <c r="V253" s="23"/>
-      <c r="W253" s="23"/>
-      <c r="X253" s="23"/>
-      <c r="Y253" s="23"/>
-      <c r="Z253" s="23"/>
+    <row r="253" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+      <c r="A253" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B253" s="30"/>
+      <c r="C253" s="30"/>
+      <c r="D253" s="30"/>
+      <c r="E253" s="30"/>
+      <c r="F253" s="30"/>
+      <c r="G253" s="30"/>
+      <c r="H253" s="30"/>
+      <c r="I253" s="30"/>
+      <c r="J253" s="30"/>
+      <c r="K253" s="30"/>
+      <c r="L253" s="30"/>
+      <c r="M253" s="30"/>
+      <c r="N253" s="30"/>
+      <c r="O253" s="30"/>
+      <c r="P253" s="30"/>
+      <c r="Q253" s="30"/>
+      <c r="R253" s="30"/>
+      <c r="S253" s="30"/>
+      <c r="T253" s="30"/>
+      <c r="U253" s="30"/>
+      <c r="V253" s="30"/>
+      <c r="W253" s="30"/>
+      <c r="X253" s="30"/>
+      <c r="Y253" s="30"/>
+      <c r="Z253" s="30"/>
     </row>
     <row r="254" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A254" s="30" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="B254" s="30"/>
       <c r="C254" s="30"/>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="255" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A255" s="30" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="B255" s="30"/>
       <c r="C255" s="30"/>
@@ -9828,39 +9828,39 @@
       <c r="Y255" s="30"/>
       <c r="Z255" s="30"/>
     </row>
-    <row r="256" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="A256" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B256" s="22"/>
-      <c r="C256" s="22"/>
-      <c r="D256" s="22"/>
-      <c r="E256" s="22"/>
-      <c r="F256" s="22"/>
-      <c r="G256" s="22"/>
-      <c r="H256" s="22"/>
-      <c r="I256" s="22"/>
-      <c r="J256" s="22"/>
-      <c r="K256" s="22"/>
-      <c r="L256" s="22"/>
-      <c r="M256" s="22"/>
-      <c r="N256" s="22"/>
-      <c r="O256" s="22"/>
-      <c r="P256" s="22"/>
-      <c r="Q256" s="22"/>
-      <c r="R256" s="22"/>
-      <c r="S256" s="22"/>
-      <c r="T256" s="22"/>
-      <c r="U256" s="22"/>
-      <c r="V256" s="22"/>
-      <c r="W256" s="22"/>
-      <c r="X256" s="22"/>
-      <c r="Y256" s="22"/>
-      <c r="Z256" s="22"/>
-    </row>
-    <row r="257" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="256" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
+      <c r="A256" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B256" s="23"/>
+      <c r="C256" s="23"/>
+      <c r="D256" s="23"/>
+      <c r="E256" s="23"/>
+      <c r="F256" s="23"/>
+      <c r="G256" s="23"/>
+      <c r="H256" s="23"/>
+      <c r="I256" s="23"/>
+      <c r="J256" s="23"/>
+      <c r="K256" s="23"/>
+      <c r="L256" s="23"/>
+      <c r="M256" s="23"/>
+      <c r="N256" s="23"/>
+      <c r="O256" s="23"/>
+      <c r="P256" s="23"/>
+      <c r="Q256" s="23"/>
+      <c r="R256" s="23"/>
+      <c r="S256" s="23"/>
+      <c r="T256" s="23"/>
+      <c r="U256" s="23"/>
+      <c r="V256" s="23"/>
+      <c r="W256" s="23"/>
+      <c r="X256" s="23"/>
+      <c r="Y256" s="23"/>
+      <c r="Z256" s="23"/>
+    </row>
+    <row r="257" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A257" s="30" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="B257" s="30"/>
       <c r="C257" s="30"/>
@@ -9888,39 +9888,39 @@
       <c r="Y257" s="30"/>
       <c r="Z257" s="30"/>
     </row>
-    <row r="258" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="A258" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B258" s="22"/>
-      <c r="C258" s="22"/>
-      <c r="D258" s="22"/>
-      <c r="E258" s="22"/>
-      <c r="F258" s="22"/>
-      <c r="G258" s="22"/>
-      <c r="H258" s="22"/>
-      <c r="I258" s="22"/>
-      <c r="J258" s="22"/>
-      <c r="K258" s="22"/>
-      <c r="L258" s="22"/>
-      <c r="M258" s="22"/>
-      <c r="N258" s="22"/>
-      <c r="O258" s="22"/>
-      <c r="P258" s="22"/>
-      <c r="Q258" s="22"/>
-      <c r="R258" s="22"/>
-      <c r="S258" s="22"/>
-      <c r="T258" s="22"/>
-      <c r="U258" s="22"/>
-      <c r="V258" s="22"/>
-      <c r="W258" s="22"/>
-      <c r="X258" s="22"/>
-      <c r="Y258" s="22"/>
-      <c r="Z258" s="22"/>
-    </row>
-    <row r="259" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="258" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
+      <c r="A258" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B258" s="23"/>
+      <c r="C258" s="23"/>
+      <c r="D258" s="23"/>
+      <c r="E258" s="23"/>
+      <c r="F258" s="23"/>
+      <c r="G258" s="23"/>
+      <c r="H258" s="23"/>
+      <c r="I258" s="23"/>
+      <c r="J258" s="23"/>
+      <c r="K258" s="23"/>
+      <c r="L258" s="23"/>
+      <c r="M258" s="23"/>
+      <c r="N258" s="23"/>
+      <c r="O258" s="23"/>
+      <c r="P258" s="23"/>
+      <c r="Q258" s="23"/>
+      <c r="R258" s="23"/>
+      <c r="S258" s="23"/>
+      <c r="T258" s="23"/>
+      <c r="U258" s="23"/>
+      <c r="V258" s="23"/>
+      <c r="W258" s="23"/>
+      <c r="X258" s="23"/>
+      <c r="Y258" s="23"/>
+      <c r="Z258" s="23"/>
+    </row>
+    <row r="259" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A259" s="30" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B259" s="30"/>
       <c r="C259" s="30"/>
@@ -9948,69 +9948,69 @@
       <c r="Y259" s="30"/>
       <c r="Z259" s="30"/>
     </row>
-    <row r="260" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="A260" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
-      <c r="D260" s="22"/>
-      <c r="E260" s="22"/>
-      <c r="F260" s="22"/>
-      <c r="G260" s="22"/>
-      <c r="H260" s="22"/>
-      <c r="I260" s="22"/>
-      <c r="J260" s="22"/>
-      <c r="K260" s="22"/>
-      <c r="L260" s="22"/>
-      <c r="M260" s="22"/>
-      <c r="N260" s="22"/>
-      <c r="O260" s="22"/>
-      <c r="P260" s="22"/>
-      <c r="Q260" s="22"/>
-      <c r="R260" s="22"/>
-      <c r="S260" s="22"/>
-      <c r="T260" s="22"/>
-      <c r="U260" s="22"/>
-      <c r="V260" s="22"/>
-      <c r="W260" s="22"/>
-      <c r="X260" s="22"/>
-      <c r="Y260" s="22"/>
-      <c r="Z260" s="22"/>
-    </row>
-    <row r="261" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A261" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B261" s="30"/>
-      <c r="C261" s="30"/>
-      <c r="D261" s="30"/>
-      <c r="E261" s="30"/>
-      <c r="F261" s="30"/>
-      <c r="G261" s="30"/>
-      <c r="H261" s="30"/>
-      <c r="I261" s="30"/>
-      <c r="J261" s="30"/>
-      <c r="K261" s="30"/>
-      <c r="L261" s="30"/>
-      <c r="M261" s="30"/>
-      <c r="N261" s="30"/>
-      <c r="O261" s="30"/>
-      <c r="P261" s="30"/>
-      <c r="Q261" s="30"/>
-      <c r="R261" s="30"/>
-      <c r="S261" s="30"/>
-      <c r="T261" s="30"/>
-      <c r="U261" s="30"/>
-      <c r="V261" s="30"/>
-      <c r="W261" s="30"/>
-      <c r="X261" s="30"/>
-      <c r="Y261" s="30"/>
-      <c r="Z261" s="30"/>
+    <row r="260" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+      <c r="A260" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B260" s="30"/>
+      <c r="C260" s="30"/>
+      <c r="D260" s="30"/>
+      <c r="E260" s="30"/>
+      <c r="F260" s="30"/>
+      <c r="G260" s="30"/>
+      <c r="H260" s="30"/>
+      <c r="I260" s="30"/>
+      <c r="J260" s="30"/>
+      <c r="K260" s="30"/>
+      <c r="L260" s="30"/>
+      <c r="M260" s="30"/>
+      <c r="N260" s="30"/>
+      <c r="O260" s="30"/>
+      <c r="P260" s="30"/>
+      <c r="Q260" s="30"/>
+      <c r="R260" s="30"/>
+      <c r="S260" s="30"/>
+      <c r="T260" s="30"/>
+      <c r="U260" s="30"/>
+      <c r="V260" s="30"/>
+      <c r="W260" s="30"/>
+      <c r="X260" s="30"/>
+      <c r="Y260" s="30"/>
+      <c r="Z260" s="30"/>
+    </row>
+    <row r="261" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A261" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B261" s="22"/>
+      <c r="C261" s="22"/>
+      <c r="D261" s="22"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
+      <c r="H261" s="22"/>
+      <c r="I261" s="22"/>
+      <c r="J261" s="22"/>
+      <c r="K261" s="22"/>
+      <c r="L261" s="22"/>
+      <c r="M261" s="22"/>
+      <c r="N261" s="22"/>
+      <c r="O261" s="22"/>
+      <c r="P261" s="22"/>
+      <c r="Q261" s="22"/>
+      <c r="R261" s="22"/>
+      <c r="S261" s="22"/>
+      <c r="T261" s="22"/>
+      <c r="U261" s="22"/>
+      <c r="V261" s="22"/>
+      <c r="W261" s="22"/>
+      <c r="X261" s="22"/>
+      <c r="Y261" s="22"/>
+      <c r="Z261" s="22"/>
     </row>
     <row r="262" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A262" s="30" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="B262" s="30"/>
       <c r="C262" s="30"/>
@@ -10038,69 +10038,69 @@
       <c r="Y262" s="30"/>
       <c r="Z262" s="30"/>
     </row>
-    <row r="263" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A263" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B263" s="30"/>
-      <c r="C263" s="30"/>
-      <c r="D263" s="30"/>
-      <c r="E263" s="30"/>
-      <c r="F263" s="30"/>
-      <c r="G263" s="30"/>
-      <c r="H263" s="30"/>
-      <c r="I263" s="30"/>
-      <c r="J263" s="30"/>
-      <c r="K263" s="30"/>
-      <c r="L263" s="30"/>
-      <c r="M263" s="30"/>
-      <c r="N263" s="30"/>
-      <c r="O263" s="30"/>
-      <c r="P263" s="30"/>
-      <c r="Q263" s="30"/>
-      <c r="R263" s="30"/>
-      <c r="S263" s="30"/>
-      <c r="T263" s="30"/>
-      <c r="U263" s="30"/>
-      <c r="V263" s="30"/>
-      <c r="W263" s="30"/>
-      <c r="X263" s="30"/>
-      <c r="Y263" s="30"/>
-      <c r="Z263" s="30"/>
-    </row>
-    <row r="264" ht="14.25" customHeight="1" collapsed="1">
-      <c r="A264" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B264" s="20"/>
-      <c r="C264" s="20"/>
-      <c r="D264" s="20"/>
-      <c r="E264" s="20"/>
-      <c r="F264" s="20"/>
-      <c r="G264" s="20"/>
-      <c r="H264" s="20"/>
-      <c r="I264" s="20"/>
-      <c r="J264" s="20"/>
-      <c r="K264" s="20"/>
-      <c r="L264" s="20"/>
-      <c r="M264" s="20"/>
-      <c r="N264" s="20"/>
-      <c r="O264" s="20"/>
-      <c r="P264" s="20"/>
-      <c r="Q264" s="20"/>
-      <c r="R264" s="20"/>
-      <c r="S264" s="20"/>
-      <c r="T264" s="20"/>
-      <c r="U264" s="20"/>
-      <c r="V264" s="20"/>
-      <c r="W264" s="20"/>
-      <c r="X264" s="20"/>
-      <c r="Y264" s="20"/>
-      <c r="Z264" s="20"/>
+    <row r="263" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A263" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B263" s="22"/>
+      <c r="C263" s="22"/>
+      <c r="D263" s="22"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
+      <c r="H263" s="22"/>
+      <c r="I263" s="22"/>
+      <c r="J263" s="22"/>
+      <c r="K263" s="22"/>
+      <c r="L263" s="22"/>
+      <c r="M263" s="22"/>
+      <c r="N263" s="22"/>
+      <c r="O263" s="22"/>
+      <c r="P263" s="22"/>
+      <c r="Q263" s="22"/>
+      <c r="R263" s="22"/>
+      <c r="S263" s="22"/>
+      <c r="T263" s="22"/>
+      <c r="U263" s="22"/>
+      <c r="V263" s="22"/>
+      <c r="W263" s="22"/>
+      <c r="X263" s="22"/>
+      <c r="Y263" s="22"/>
+      <c r="Z263" s="22"/>
+    </row>
+    <row r="264" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A264" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B264" s="30"/>
+      <c r="C264" s="30"/>
+      <c r="D264" s="30"/>
+      <c r="E264" s="30"/>
+      <c r="F264" s="30"/>
+      <c r="G264" s="30"/>
+      <c r="H264" s="30"/>
+      <c r="I264" s="30"/>
+      <c r="J264" s="30"/>
+      <c r="K264" s="30"/>
+      <c r="L264" s="30"/>
+      <c r="M264" s="30"/>
+      <c r="N264" s="30"/>
+      <c r="O264" s="30"/>
+      <c r="P264" s="30"/>
+      <c r="Q264" s="30"/>
+      <c r="R264" s="30"/>
+      <c r="S264" s="30"/>
+      <c r="T264" s="30"/>
+      <c r="U264" s="30"/>
+      <c r="V264" s="30"/>
+      <c r="W264" s="30"/>
+      <c r="X264" s="30"/>
+      <c r="Y264" s="30"/>
+      <c r="Z264" s="30"/>
     </row>
     <row r="265" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A265" s="22" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B265" s="22"/>
       <c r="C265" s="22"/>
@@ -10128,39 +10128,39 @@
       <c r="Y265" s="22"/>
       <c r="Z265" s="22"/>
     </row>
-    <row r="266" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
-      <c r="A266" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B266" s="23"/>
-      <c r="C266" s="23"/>
-      <c r="D266" s="23"/>
-      <c r="E266" s="23"/>
-      <c r="F266" s="23"/>
-      <c r="G266" s="23"/>
-      <c r="H266" s="23"/>
-      <c r="I266" s="23"/>
-      <c r="J266" s="23"/>
-      <c r="K266" s="23"/>
-      <c r="L266" s="23"/>
-      <c r="M266" s="23"/>
-      <c r="N266" s="23"/>
-      <c r="O266" s="23"/>
-      <c r="P266" s="23"/>
-      <c r="Q266" s="23"/>
-      <c r="R266" s="23"/>
-      <c r="S266" s="23"/>
-      <c r="T266" s="23"/>
-      <c r="U266" s="23"/>
-      <c r="V266" s="23"/>
-      <c r="W266" s="23"/>
-      <c r="X266" s="23"/>
-      <c r="Y266" s="23"/>
-      <c r="Z266" s="23"/>
-    </row>
-    <row r="267" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+    <row r="266" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A266" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B266" s="30"/>
+      <c r="C266" s="30"/>
+      <c r="D266" s="30"/>
+      <c r="E266" s="30"/>
+      <c r="F266" s="30"/>
+      <c r="G266" s="30"/>
+      <c r="H266" s="30"/>
+      <c r="I266" s="30"/>
+      <c r="J266" s="30"/>
+      <c r="K266" s="30"/>
+      <c r="L266" s="30"/>
+      <c r="M266" s="30"/>
+      <c r="N266" s="30"/>
+      <c r="O266" s="30"/>
+      <c r="P266" s="30"/>
+      <c r="Q266" s="30"/>
+      <c r="R266" s="30"/>
+      <c r="S266" s="30"/>
+      <c r="T266" s="30"/>
+      <c r="U266" s="30"/>
+      <c r="V266" s="30"/>
+      <c r="W266" s="30"/>
+      <c r="X266" s="30"/>
+      <c r="Y266" s="30"/>
+      <c r="Z266" s="30"/>
+    </row>
+    <row r="267" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A267" s="30" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B267" s="30"/>
       <c r="C267" s="30"/>
@@ -10188,9 +10188,9 @@
       <c r="Y267" s="30"/>
       <c r="Z267" s="30"/>
     </row>
-    <row r="268" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+    <row r="268" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A268" s="30" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="B268" s="30"/>
       <c r="C268" s="30"/>
@@ -10218,129 +10218,129 @@
       <c r="Y268" s="30"/>
       <c r="Z268" s="30"/>
     </row>
-    <row r="269" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
-      <c r="A269" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B269" s="30"/>
-      <c r="C269" s="30"/>
-      <c r="D269" s="30"/>
-      <c r="E269" s="30"/>
-      <c r="F269" s="30"/>
-      <c r="G269" s="30"/>
-      <c r="H269" s="30"/>
-      <c r="I269" s="30"/>
-      <c r="J269" s="30"/>
-      <c r="K269" s="30"/>
-      <c r="L269" s="30"/>
-      <c r="M269" s="30"/>
-      <c r="N269" s="30"/>
-      <c r="O269" s="30"/>
-      <c r="P269" s="30"/>
-      <c r="Q269" s="30"/>
-      <c r="R269" s="30"/>
-      <c r="S269" s="30"/>
-      <c r="T269" s="30"/>
-      <c r="U269" s="30"/>
-      <c r="V269" s="30"/>
-      <c r="W269" s="30"/>
-      <c r="X269" s="30"/>
-      <c r="Y269" s="30"/>
-      <c r="Z269" s="30"/>
-    </row>
-    <row r="270" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
-      <c r="A270" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B270" s="30"/>
-      <c r="C270" s="30"/>
-      <c r="D270" s="30"/>
-      <c r="E270" s="30"/>
-      <c r="F270" s="30"/>
-      <c r="G270" s="30"/>
-      <c r="H270" s="30"/>
-      <c r="I270" s="30"/>
-      <c r="J270" s="30"/>
-      <c r="K270" s="30"/>
-      <c r="L270" s="30"/>
-      <c r="M270" s="30"/>
-      <c r="N270" s="30"/>
-      <c r="O270" s="30"/>
-      <c r="P270" s="30"/>
-      <c r="Q270" s="30"/>
-      <c r="R270" s="30"/>
-      <c r="S270" s="30"/>
-      <c r="T270" s="30"/>
-      <c r="U270" s="30"/>
-      <c r="V270" s="30"/>
-      <c r="W270" s="30"/>
-      <c r="X270" s="30"/>
-      <c r="Y270" s="30"/>
-      <c r="Z270" s="30"/>
-    </row>
-    <row r="271" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
-      <c r="A271" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B271" s="30"/>
-      <c r="C271" s="30"/>
-      <c r="D271" s="30"/>
-      <c r="E271" s="30"/>
-      <c r="F271" s="30"/>
-      <c r="G271" s="30"/>
-      <c r="H271" s="30"/>
-      <c r="I271" s="30"/>
-      <c r="J271" s="30"/>
-      <c r="K271" s="30"/>
-      <c r="L271" s="30"/>
-      <c r="M271" s="30"/>
-      <c r="N271" s="30"/>
-      <c r="O271" s="30"/>
-      <c r="P271" s="30"/>
-      <c r="Q271" s="30"/>
-      <c r="R271" s="30"/>
-      <c r="S271" s="30"/>
-      <c r="T271" s="30"/>
-      <c r="U271" s="30"/>
-      <c r="V271" s="30"/>
-      <c r="W271" s="30"/>
-      <c r="X271" s="30"/>
-      <c r="Y271" s="30"/>
-      <c r="Z271" s="30"/>
-    </row>
-    <row r="272" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
-      <c r="A272" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B272" s="23"/>
-      <c r="C272" s="23"/>
-      <c r="D272" s="23"/>
-      <c r="E272" s="23"/>
-      <c r="F272" s="23"/>
-      <c r="G272" s="23"/>
-      <c r="H272" s="23"/>
-      <c r="I272" s="23"/>
-      <c r="J272" s="23"/>
-      <c r="K272" s="23"/>
-      <c r="L272" s="23"/>
-      <c r="M272" s="23"/>
-      <c r="N272" s="23"/>
-      <c r="O272" s="23"/>
-      <c r="P272" s="23"/>
-      <c r="Q272" s="23"/>
-      <c r="R272" s="23"/>
-      <c r="S272" s="23"/>
-      <c r="T272" s="23"/>
-      <c r="U272" s="23"/>
-      <c r="V272" s="23"/>
-      <c r="W272" s="23"/>
-      <c r="X272" s="23"/>
-      <c r="Y272" s="23"/>
-      <c r="Z272" s="23"/>
+    <row r="269" ht="14.25" customHeight="1" collapsed="1">
+      <c r="A269" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="20"/>
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="J269" s="20"/>
+      <c r="K269" s="20"/>
+      <c r="L269" s="20"/>
+      <c r="M269" s="20"/>
+      <c r="N269" s="20"/>
+      <c r="O269" s="20"/>
+      <c r="P269" s="20"/>
+      <c r="Q269" s="20"/>
+      <c r="R269" s="20"/>
+      <c r="S269" s="20"/>
+      <c r="T269" s="20"/>
+      <c r="U269" s="20"/>
+      <c r="V269" s="20"/>
+      <c r="W269" s="20"/>
+      <c r="X269" s="20"/>
+      <c r="Y269" s="20"/>
+      <c r="Z269" s="20"/>
+    </row>
+    <row r="270" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A270" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B270" s="22"/>
+      <c r="C270" s="22"/>
+      <c r="D270" s="22"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="22"/>
+      <c r="G270" s="22"/>
+      <c r="H270" s="22"/>
+      <c r="I270" s="22"/>
+      <c r="J270" s="22"/>
+      <c r="K270" s="22"/>
+      <c r="L270" s="22"/>
+      <c r="M270" s="22"/>
+      <c r="N270" s="22"/>
+      <c r="O270" s="22"/>
+      <c r="P270" s="22"/>
+      <c r="Q270" s="22"/>
+      <c r="R270" s="22"/>
+      <c r="S270" s="22"/>
+      <c r="T270" s="22"/>
+      <c r="U270" s="22"/>
+      <c r="V270" s="22"/>
+      <c r="W270" s="22"/>
+      <c r="X270" s="22"/>
+      <c r="Y270" s="22"/>
+      <c r="Z270" s="22"/>
+    </row>
+    <row r="271" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
+      <c r="A271" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B271" s="23"/>
+      <c r="C271" s="23"/>
+      <c r="D271" s="23"/>
+      <c r="E271" s="23"/>
+      <c r="F271" s="23"/>
+      <c r="G271" s="23"/>
+      <c r="H271" s="23"/>
+      <c r="I271" s="23"/>
+      <c r="J271" s="23"/>
+      <c r="K271" s="23"/>
+      <c r="L271" s="23"/>
+      <c r="M271" s="23"/>
+      <c r="N271" s="23"/>
+      <c r="O271" s="23"/>
+      <c r="P271" s="23"/>
+      <c r="Q271" s="23"/>
+      <c r="R271" s="23"/>
+      <c r="S271" s="23"/>
+      <c r="T271" s="23"/>
+      <c r="U271" s="23"/>
+      <c r="V271" s="23"/>
+      <c r="W271" s="23"/>
+      <c r="X271" s="23"/>
+      <c r="Y271" s="23"/>
+      <c r="Z271" s="23"/>
+    </row>
+    <row r="272" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+      <c r="A272" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B272" s="30"/>
+      <c r="C272" s="30"/>
+      <c r="D272" s="30"/>
+      <c r="E272" s="30"/>
+      <c r="F272" s="30"/>
+      <c r="G272" s="30"/>
+      <c r="H272" s="30"/>
+      <c r="I272" s="30"/>
+      <c r="J272" s="30"/>
+      <c r="K272" s="30"/>
+      <c r="L272" s="30"/>
+      <c r="M272" s="30"/>
+      <c r="N272" s="30"/>
+      <c r="O272" s="30"/>
+      <c r="P272" s="30"/>
+      <c r="Q272" s="30"/>
+      <c r="R272" s="30"/>
+      <c r="S272" s="30"/>
+      <c r="T272" s="30"/>
+      <c r="U272" s="30"/>
+      <c r="V272" s="30"/>
+      <c r="W272" s="30"/>
+      <c r="X272" s="30"/>
+      <c r="Y272" s="30"/>
+      <c r="Z272" s="30"/>
     </row>
     <row r="273" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A273" s="30" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="B273" s="30"/>
       <c r="C273" s="30"/>
@@ -10370,7 +10370,7 @@
     </row>
     <row r="274" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A274" s="30" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="B274" s="30"/>
       <c r="C274" s="30"/>
@@ -10398,99 +10398,99 @@
       <c r="Y274" s="30"/>
       <c r="Z274" s="30"/>
     </row>
-    <row r="275" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="A275" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B275" s="22"/>
-      <c r="C275" s="22"/>
-      <c r="D275" s="22"/>
-      <c r="E275" s="22"/>
-      <c r="F275" s="22"/>
-      <c r="G275" s="22"/>
-      <c r="H275" s="22"/>
-      <c r="I275" s="22"/>
-      <c r="J275" s="22"/>
-      <c r="K275" s="22"/>
-      <c r="L275" s="22"/>
-      <c r="M275" s="22"/>
-      <c r="N275" s="22"/>
-      <c r="O275" s="22"/>
-      <c r="P275" s="22"/>
-      <c r="Q275" s="22"/>
-      <c r="R275" s="22"/>
-      <c r="S275" s="22"/>
-      <c r="T275" s="22"/>
-      <c r="U275" s="22"/>
-      <c r="V275" s="22"/>
-      <c r="W275" s="22"/>
-      <c r="X275" s="22"/>
-      <c r="Y275" s="22"/>
-      <c r="Z275" s="22"/>
-    </row>
-    <row r="276" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
-      <c r="A276" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B276" s="23"/>
-      <c r="C276" s="23"/>
-      <c r="D276" s="23"/>
-      <c r="E276" s="23"/>
-      <c r="F276" s="23"/>
-      <c r="G276" s="23"/>
-      <c r="H276" s="23"/>
-      <c r="I276" s="23"/>
-      <c r="J276" s="23"/>
-      <c r="K276" s="23"/>
-      <c r="L276" s="23"/>
-      <c r="M276" s="23"/>
-      <c r="N276" s="23"/>
-      <c r="O276" s="23"/>
-      <c r="P276" s="23"/>
-      <c r="Q276" s="23"/>
-      <c r="R276" s="23"/>
-      <c r="S276" s="23"/>
-      <c r="T276" s="23"/>
-      <c r="U276" s="23"/>
-      <c r="V276" s="23"/>
-      <c r="W276" s="23"/>
-      <c r="X276" s="23"/>
-      <c r="Y276" s="23"/>
-      <c r="Z276" s="23"/>
-    </row>
-    <row r="277" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
-      <c r="A277" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B277" s="30"/>
-      <c r="C277" s="30"/>
-      <c r="D277" s="30"/>
-      <c r="E277" s="30"/>
-      <c r="F277" s="30"/>
-      <c r="G277" s="30"/>
-      <c r="H277" s="30"/>
-      <c r="I277" s="30"/>
-      <c r="J277" s="30"/>
-      <c r="K277" s="30"/>
-      <c r="L277" s="30"/>
-      <c r="M277" s="30"/>
-      <c r="N277" s="30"/>
-      <c r="O277" s="30"/>
-      <c r="P277" s="30"/>
-      <c r="Q277" s="30"/>
-      <c r="R277" s="30"/>
-      <c r="S277" s="30"/>
-      <c r="T277" s="30"/>
-      <c r="U277" s="30"/>
-      <c r="V277" s="30"/>
-      <c r="W277" s="30"/>
-      <c r="X277" s="30"/>
-      <c r="Y277" s="30"/>
-      <c r="Z277" s="30"/>
+    <row r="275" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+      <c r="A275" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B275" s="30"/>
+      <c r="C275" s="30"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="30"/>
+      <c r="F275" s="30"/>
+      <c r="G275" s="30"/>
+      <c r="H275" s="30"/>
+      <c r="I275" s="30"/>
+      <c r="J275" s="30"/>
+      <c r="K275" s="30"/>
+      <c r="L275" s="30"/>
+      <c r="M275" s="30"/>
+      <c r="N275" s="30"/>
+      <c r="O275" s="30"/>
+      <c r="P275" s="30"/>
+      <c r="Q275" s="30"/>
+      <c r="R275" s="30"/>
+      <c r="S275" s="30"/>
+      <c r="T275" s="30"/>
+      <c r="U275" s="30"/>
+      <c r="V275" s="30"/>
+      <c r="W275" s="30"/>
+      <c r="X275" s="30"/>
+      <c r="Y275" s="30"/>
+      <c r="Z275" s="30"/>
+    </row>
+    <row r="276" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+      <c r="A276" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B276" s="30"/>
+      <c r="C276" s="30"/>
+      <c r="D276" s="30"/>
+      <c r="E276" s="30"/>
+      <c r="F276" s="30"/>
+      <c r="G276" s="30"/>
+      <c r="H276" s="30"/>
+      <c r="I276" s="30"/>
+      <c r="J276" s="30"/>
+      <c r="K276" s="30"/>
+      <c r="L276" s="30"/>
+      <c r="M276" s="30"/>
+      <c r="N276" s="30"/>
+      <c r="O276" s="30"/>
+      <c r="P276" s="30"/>
+      <c r="Q276" s="30"/>
+      <c r="R276" s="30"/>
+      <c r="S276" s="30"/>
+      <c r="T276" s="30"/>
+      <c r="U276" s="30"/>
+      <c r="V276" s="30"/>
+      <c r="W276" s="30"/>
+      <c r="X276" s="30"/>
+      <c r="Y276" s="30"/>
+      <c r="Z276" s="30"/>
+    </row>
+    <row r="277" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
+      <c r="A277" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B277" s="23"/>
+      <c r="C277" s="23"/>
+      <c r="D277" s="23"/>
+      <c r="E277" s="23"/>
+      <c r="F277" s="23"/>
+      <c r="G277" s="23"/>
+      <c r="H277" s="23"/>
+      <c r="I277" s="23"/>
+      <c r="J277" s="23"/>
+      <c r="K277" s="23"/>
+      <c r="L277" s="23"/>
+      <c r="M277" s="23"/>
+      <c r="N277" s="23"/>
+      <c r="O277" s="23"/>
+      <c r="P277" s="23"/>
+      <c r="Q277" s="23"/>
+      <c r="R277" s="23"/>
+      <c r="S277" s="23"/>
+      <c r="T277" s="23"/>
+      <c r="U277" s="23"/>
+      <c r="V277" s="23"/>
+      <c r="W277" s="23"/>
+      <c r="X277" s="23"/>
+      <c r="Y277" s="23"/>
+      <c r="Z277" s="23"/>
     </row>
     <row r="278" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A278" s="30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B278" s="30"/>
       <c r="C278" s="30"/>
@@ -10518,99 +10518,99 @@
       <c r="Y278" s="30"/>
       <c r="Z278" s="30"/>
     </row>
-    <row r="279" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
-      <c r="A279" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B279" s="23"/>
-      <c r="C279" s="23"/>
-      <c r="D279" s="23"/>
-      <c r="E279" s="23"/>
-      <c r="F279" s="23"/>
-      <c r="G279" s="23"/>
-      <c r="H279" s="23"/>
-      <c r="I279" s="23"/>
-      <c r="J279" s="23"/>
-      <c r="K279" s="23"/>
-      <c r="L279" s="23"/>
-      <c r="M279" s="23"/>
-      <c r="N279" s="23"/>
-      <c r="O279" s="23"/>
-      <c r="P279" s="23"/>
-      <c r="Q279" s="23"/>
-      <c r="R279" s="23"/>
-      <c r="S279" s="23"/>
-      <c r="T279" s="23"/>
-      <c r="U279" s="23"/>
-      <c r="V279" s="23"/>
-      <c r="W279" s="23"/>
-      <c r="X279" s="23"/>
-      <c r="Y279" s="23"/>
-      <c r="Z279" s="23"/>
-    </row>
-    <row r="280" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
-      <c r="A280" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B280" s="34"/>
-      <c r="C280" s="34"/>
-      <c r="D280" s="34"/>
-      <c r="E280" s="34"/>
-      <c r="F280" s="34"/>
-      <c r="G280" s="34"/>
-      <c r="H280" s="34"/>
-      <c r="I280" s="34"/>
-      <c r="J280" s="34"/>
-      <c r="K280" s="34"/>
-      <c r="L280" s="34"/>
-      <c r="M280" s="34"/>
-      <c r="N280" s="34"/>
-      <c r="O280" s="34"/>
-      <c r="P280" s="34"/>
-      <c r="Q280" s="34"/>
-      <c r="R280" s="34"/>
-      <c r="S280" s="34"/>
-      <c r="T280" s="34"/>
-      <c r="U280" s="34"/>
-      <c r="V280" s="34"/>
-      <c r="W280" s="34"/>
-      <c r="X280" s="34"/>
-      <c r="Y280" s="34"/>
-      <c r="Z280" s="34"/>
-    </row>
-    <row r="281" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
-      <c r="A281" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B281" s="30"/>
-      <c r="C281" s="30"/>
-      <c r="D281" s="30"/>
-      <c r="E281" s="30"/>
-      <c r="F281" s="30"/>
-      <c r="G281" s="30"/>
-      <c r="H281" s="30"/>
-      <c r="I281" s="30"/>
-      <c r="J281" s="30"/>
-      <c r="K281" s="30"/>
-      <c r="L281" s="30"/>
-      <c r="M281" s="30"/>
-      <c r="N281" s="30"/>
-      <c r="O281" s="30"/>
-      <c r="P281" s="30"/>
-      <c r="Q281" s="30"/>
-      <c r="R281" s="30"/>
-      <c r="S281" s="30"/>
-      <c r="T281" s="30"/>
-      <c r="U281" s="30"/>
-      <c r="V281" s="30"/>
-      <c r="W281" s="30"/>
-      <c r="X281" s="30"/>
-      <c r="Y281" s="30"/>
-      <c r="Z281" s="30"/>
-    </row>
-    <row r="282" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
+    <row r="279" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
+      <c r="A279" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B279" s="30"/>
+      <c r="C279" s="30"/>
+      <c r="D279" s="30"/>
+      <c r="E279" s="30"/>
+      <c r="F279" s="30"/>
+      <c r="G279" s="30"/>
+      <c r="H279" s="30"/>
+      <c r="I279" s="30"/>
+      <c r="J279" s="30"/>
+      <c r="K279" s="30"/>
+      <c r="L279" s="30"/>
+      <c r="M279" s="30"/>
+      <c r="N279" s="30"/>
+      <c r="O279" s="30"/>
+      <c r="P279" s="30"/>
+      <c r="Q279" s="30"/>
+      <c r="R279" s="30"/>
+      <c r="S279" s="30"/>
+      <c r="T279" s="30"/>
+      <c r="U279" s="30"/>
+      <c r="V279" s="30"/>
+      <c r="W279" s="30"/>
+      <c r="X279" s="30"/>
+      <c r="Y279" s="30"/>
+      <c r="Z279" s="30"/>
+    </row>
+    <row r="280" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A280" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B280" s="22"/>
+      <c r="C280" s="22"/>
+      <c r="D280" s="22"/>
+      <c r="E280" s="22"/>
+      <c r="F280" s="22"/>
+      <c r="G280" s="22"/>
+      <c r="H280" s="22"/>
+      <c r="I280" s="22"/>
+      <c r="J280" s="22"/>
+      <c r="K280" s="22"/>
+      <c r="L280" s="22"/>
+      <c r="M280" s="22"/>
+      <c r="N280" s="22"/>
+      <c r="O280" s="22"/>
+      <c r="P280" s="22"/>
+      <c r="Q280" s="22"/>
+      <c r="R280" s="22"/>
+      <c r="S280" s="22"/>
+      <c r="T280" s="22"/>
+      <c r="U280" s="22"/>
+      <c r="V280" s="22"/>
+      <c r="W280" s="22"/>
+      <c r="X280" s="22"/>
+      <c r="Y280" s="22"/>
+      <c r="Z280" s="22"/>
+    </row>
+    <row r="281" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
+      <c r="A281" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B281" s="23"/>
+      <c r="C281" s="23"/>
+      <c r="D281" s="23"/>
+      <c r="E281" s="23"/>
+      <c r="F281" s="23"/>
+      <c r="G281" s="23"/>
+      <c r="H281" s="23"/>
+      <c r="I281" s="23"/>
+      <c r="J281" s="23"/>
+      <c r="K281" s="23"/>
+      <c r="L281" s="23"/>
+      <c r="M281" s="23"/>
+      <c r="N281" s="23"/>
+      <c r="O281" s="23"/>
+      <c r="P281" s="23"/>
+      <c r="Q281" s="23"/>
+      <c r="R281" s="23"/>
+      <c r="S281" s="23"/>
+      <c r="T281" s="23"/>
+      <c r="U281" s="23"/>
+      <c r="V281" s="23"/>
+      <c r="W281" s="23"/>
+      <c r="X281" s="23"/>
+      <c r="Y281" s="23"/>
+      <c r="Z281" s="23"/>
+    </row>
+    <row r="282" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A282" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B282" s="30"/>
       <c r="C282" s="30"/>
@@ -10638,9 +10638,9 @@
       <c r="Y282" s="30"/>
       <c r="Z282" s="30"/>
     </row>
-    <row r="283" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
+    <row r="283" ht="14.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A283" s="30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B283" s="30"/>
       <c r="C283" s="30"/>
@@ -10668,69 +10668,69 @@
       <c r="Y283" s="30"/>
       <c r="Z283" s="30"/>
     </row>
-    <row r="284" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
-      <c r="A284" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B284" s="30"/>
-      <c r="C284" s="30"/>
-      <c r="D284" s="30"/>
-      <c r="E284" s="30"/>
-      <c r="F284" s="30"/>
-      <c r="G284" s="30"/>
-      <c r="H284" s="30"/>
-      <c r="I284" s="30"/>
-      <c r="J284" s="30"/>
-      <c r="K284" s="30"/>
-      <c r="L284" s="30"/>
-      <c r="M284" s="30"/>
-      <c r="N284" s="30"/>
-      <c r="O284" s="30"/>
-      <c r="P284" s="30"/>
-      <c r="Q284" s="30"/>
-      <c r="R284" s="30"/>
-      <c r="S284" s="30"/>
-      <c r="T284" s="30"/>
-      <c r="U284" s="30"/>
-      <c r="V284" s="30"/>
-      <c r="W284" s="30"/>
-      <c r="X284" s="30"/>
-      <c r="Y284" s="30"/>
-      <c r="Z284" s="30"/>
-    </row>
-    <row r="285" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
-      <c r="A285" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B285" s="30"/>
-      <c r="C285" s="30"/>
-      <c r="D285" s="30"/>
-      <c r="E285" s="30"/>
-      <c r="F285" s="30"/>
-      <c r="G285" s="30"/>
-      <c r="H285" s="30"/>
-      <c r="I285" s="30"/>
-      <c r="J285" s="30"/>
-      <c r="K285" s="30"/>
-      <c r="L285" s="30"/>
-      <c r="M285" s="30"/>
-      <c r="N285" s="30"/>
-      <c r="O285" s="30"/>
-      <c r="P285" s="30"/>
-      <c r="Q285" s="30"/>
-      <c r="R285" s="30"/>
-      <c r="S285" s="30"/>
-      <c r="T285" s="30"/>
-      <c r="U285" s="30"/>
-      <c r="V285" s="30"/>
-      <c r="W285" s="30"/>
-      <c r="X285" s="30"/>
-      <c r="Y285" s="30"/>
-      <c r="Z285" s="30"/>
+    <row r="284" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
+      <c r="A284" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B284" s="23"/>
+      <c r="C284" s="23"/>
+      <c r="D284" s="23"/>
+      <c r="E284" s="23"/>
+      <c r="F284" s="23"/>
+      <c r="G284" s="23"/>
+      <c r="H284" s="23"/>
+      <c r="I284" s="23"/>
+      <c r="J284" s="23"/>
+      <c r="K284" s="23"/>
+      <c r="L284" s="23"/>
+      <c r="M284" s="23"/>
+      <c r="N284" s="23"/>
+      <c r="O284" s="23"/>
+      <c r="P284" s="23"/>
+      <c r="Q284" s="23"/>
+      <c r="R284" s="23"/>
+      <c r="S284" s="23"/>
+      <c r="T284" s="23"/>
+      <c r="U284" s="23"/>
+      <c r="V284" s="23"/>
+      <c r="W284" s="23"/>
+      <c r="X284" s="23"/>
+      <c r="Y284" s="23"/>
+      <c r="Z284" s="23"/>
+    </row>
+    <row r="285" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
+      <c r="A285" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B285" s="34"/>
+      <c r="C285" s="34"/>
+      <c r="D285" s="34"/>
+      <c r="E285" s="34"/>
+      <c r="F285" s="34"/>
+      <c r="G285" s="34"/>
+      <c r="H285" s="34"/>
+      <c r="I285" s="34"/>
+      <c r="J285" s="34"/>
+      <c r="K285" s="34"/>
+      <c r="L285" s="34"/>
+      <c r="M285" s="34"/>
+      <c r="N285" s="34"/>
+      <c r="O285" s="34"/>
+      <c r="P285" s="34"/>
+      <c r="Q285" s="34"/>
+      <c r="R285" s="34"/>
+      <c r="S285" s="34"/>
+      <c r="T285" s="34"/>
+      <c r="U285" s="34"/>
+      <c r="V285" s="34"/>
+      <c r="W285" s="34"/>
+      <c r="X285" s="34"/>
+      <c r="Y285" s="34"/>
+      <c r="Z285" s="34"/>
     </row>
     <row r="286" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A286" s="30" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="B286" s="30"/>
       <c r="C286" s="30"/>
@@ -10760,7 +10760,7 @@
     </row>
     <row r="287" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A287" s="30" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B287" s="30"/>
       <c r="C287" s="30"/>
@@ -10790,7 +10790,7 @@
     </row>
     <row r="288" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A288" s="30" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="B288" s="30"/>
       <c r="C288" s="30"/>
@@ -10818,39 +10818,39 @@
       <c r="Y288" s="30"/>
       <c r="Z288" s="30"/>
     </row>
-    <row r="289" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
-      <c r="A289" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B289" s="34"/>
-      <c r="C289" s="34"/>
-      <c r="D289" s="34"/>
-      <c r="E289" s="34"/>
-      <c r="F289" s="34"/>
-      <c r="G289" s="34"/>
-      <c r="H289" s="34"/>
-      <c r="I289" s="34"/>
-      <c r="J289" s="34"/>
-      <c r="K289" s="34"/>
-      <c r="L289" s="34"/>
-      <c r="M289" s="34"/>
-      <c r="N289" s="34"/>
-      <c r="O289" s="34"/>
-      <c r="P289" s="34"/>
-      <c r="Q289" s="34"/>
-      <c r="R289" s="34"/>
-      <c r="S289" s="34"/>
-      <c r="T289" s="34"/>
-      <c r="U289" s="34"/>
-      <c r="V289" s="34"/>
-      <c r="W289" s="34"/>
-      <c r="X289" s="34"/>
-      <c r="Y289" s="34"/>
-      <c r="Z289" s="34"/>
+    <row r="289" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
+      <c r="A289" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B289" s="30"/>
+      <c r="C289" s="30"/>
+      <c r="D289" s="30"/>
+      <c r="E289" s="30"/>
+      <c r="F289" s="30"/>
+      <c r="G289" s="30"/>
+      <c r="H289" s="30"/>
+      <c r="I289" s="30"/>
+      <c r="J289" s="30"/>
+      <c r="K289" s="30"/>
+      <c r="L289" s="30"/>
+      <c r="M289" s="30"/>
+      <c r="N289" s="30"/>
+      <c r="O289" s="30"/>
+      <c r="P289" s="30"/>
+      <c r="Q289" s="30"/>
+      <c r="R289" s="30"/>
+      <c r="S289" s="30"/>
+      <c r="T289" s="30"/>
+      <c r="U289" s="30"/>
+      <c r="V289" s="30"/>
+      <c r="W289" s="30"/>
+      <c r="X289" s="30"/>
+      <c r="Y289" s="30"/>
+      <c r="Z289" s="30"/>
     </row>
     <row r="290" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A290" s="30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B290" s="30"/>
       <c r="C290" s="30"/>
@@ -10880,7 +10880,7 @@
     </row>
     <row r="291" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A291" s="30" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="B291" s="30"/>
       <c r="C291" s="30"/>
@@ -10910,7 +10910,7 @@
     </row>
     <row r="292" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A292" s="30" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="B292" s="30"/>
       <c r="C292" s="30"/>
@@ -10940,7 +10940,7 @@
     </row>
     <row r="293" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A293" s="30" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="B293" s="30"/>
       <c r="C293" s="30"/>
@@ -10968,39 +10968,39 @@
       <c r="Y293" s="30"/>
       <c r="Z293" s="30"/>
     </row>
-    <row r="294" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
-      <c r="A294" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B294" s="30"/>
-      <c r="C294" s="30"/>
-      <c r="D294" s="30"/>
-      <c r="E294" s="30"/>
-      <c r="F294" s="30"/>
-      <c r="G294" s="30"/>
-      <c r="H294" s="30"/>
-      <c r="I294" s="30"/>
-      <c r="J294" s="30"/>
-      <c r="K294" s="30"/>
-      <c r="L294" s="30"/>
-      <c r="M294" s="30"/>
-      <c r="N294" s="30"/>
-      <c r="O294" s="30"/>
-      <c r="P294" s="30"/>
-      <c r="Q294" s="30"/>
-      <c r="R294" s="30"/>
-      <c r="S294" s="30"/>
-      <c r="T294" s="30"/>
-      <c r="U294" s="30"/>
-      <c r="V294" s="30"/>
-      <c r="W294" s="30"/>
-      <c r="X294" s="30"/>
-      <c r="Y294" s="30"/>
-      <c r="Z294" s="30"/>
+    <row r="294" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
+      <c r="A294" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B294" s="34"/>
+      <c r="C294" s="34"/>
+      <c r="D294" s="34"/>
+      <c r="E294" s="34"/>
+      <c r="F294" s="34"/>
+      <c r="G294" s="34"/>
+      <c r="H294" s="34"/>
+      <c r="I294" s="34"/>
+      <c r="J294" s="34"/>
+      <c r="K294" s="34"/>
+      <c r="L294" s="34"/>
+      <c r="M294" s="34"/>
+      <c r="N294" s="34"/>
+      <c r="O294" s="34"/>
+      <c r="P294" s="34"/>
+      <c r="Q294" s="34"/>
+      <c r="R294" s="34"/>
+      <c r="S294" s="34"/>
+      <c r="T294" s="34"/>
+      <c r="U294" s="34"/>
+      <c r="V294" s="34"/>
+      <c r="W294" s="34"/>
+      <c r="X294" s="34"/>
+      <c r="Y294" s="34"/>
+      <c r="Z294" s="34"/>
     </row>
     <row r="295" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A295" s="30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B295" s="30"/>
       <c r="C295" s="30"/>
@@ -11030,7 +11030,7 @@
     </row>
     <row r="296" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A296" s="30" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B296" s="30"/>
       <c r="C296" s="30"/>
@@ -11058,69 +11058,69 @@
       <c r="Y296" s="30"/>
       <c r="Z296" s="30"/>
     </row>
-    <row r="297" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
-      <c r="A297" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B297" s="23"/>
-      <c r="C297" s="23"/>
-      <c r="D297" s="23"/>
-      <c r="E297" s="23"/>
-      <c r="F297" s="23"/>
-      <c r="G297" s="23"/>
-      <c r="H297" s="23"/>
-      <c r="I297" s="23"/>
-      <c r="J297" s="23"/>
-      <c r="K297" s="23"/>
-      <c r="L297" s="23"/>
-      <c r="M297" s="23"/>
-      <c r="N297" s="23"/>
-      <c r="O297" s="23"/>
-      <c r="P297" s="23"/>
-      <c r="Q297" s="23"/>
-      <c r="R297" s="23"/>
-      <c r="S297" s="23"/>
-      <c r="T297" s="23"/>
-      <c r="U297" s="23"/>
-      <c r="V297" s="23"/>
-      <c r="W297" s="23"/>
-      <c r="X297" s="23"/>
-      <c r="Y297" s="23"/>
-      <c r="Z297" s="23"/>
-    </row>
-    <row r="298" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
-      <c r="A298" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B298" s="34"/>
-      <c r="C298" s="34"/>
-      <c r="D298" s="34"/>
-      <c r="E298" s="34"/>
-      <c r="F298" s="34"/>
-      <c r="G298" s="34"/>
-      <c r="H298" s="34"/>
-      <c r="I298" s="34"/>
-      <c r="J298" s="34"/>
-      <c r="K298" s="34"/>
-      <c r="L298" s="34"/>
-      <c r="M298" s="34"/>
-      <c r="N298" s="34"/>
-      <c r="O298" s="34"/>
-      <c r="P298" s="34"/>
-      <c r="Q298" s="34"/>
-      <c r="R298" s="34"/>
-      <c r="S298" s="34"/>
-      <c r="T298" s="34"/>
-      <c r="U298" s="34"/>
-      <c r="V298" s="34"/>
-      <c r="W298" s="34"/>
-      <c r="X298" s="34"/>
-      <c r="Y298" s="34"/>
-      <c r="Z298" s="34"/>
+    <row r="297" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
+      <c r="A297" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B297" s="30"/>
+      <c r="C297" s="30"/>
+      <c r="D297" s="30"/>
+      <c r="E297" s="30"/>
+      <c r="F297" s="30"/>
+      <c r="G297" s="30"/>
+      <c r="H297" s="30"/>
+      <c r="I297" s="30"/>
+      <c r="J297" s="30"/>
+      <c r="K297" s="30"/>
+      <c r="L297" s="30"/>
+      <c r="M297" s="30"/>
+      <c r="N297" s="30"/>
+      <c r="O297" s="30"/>
+      <c r="P297" s="30"/>
+      <c r="Q297" s="30"/>
+      <c r="R297" s="30"/>
+      <c r="S297" s="30"/>
+      <c r="T297" s="30"/>
+      <c r="U297" s="30"/>
+      <c r="V297" s="30"/>
+      <c r="W297" s="30"/>
+      <c r="X297" s="30"/>
+      <c r="Y297" s="30"/>
+      <c r="Z297" s="30"/>
+    </row>
+    <row r="298" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
+      <c r="A298" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B298" s="30"/>
+      <c r="C298" s="30"/>
+      <c r="D298" s="30"/>
+      <c r="E298" s="30"/>
+      <c r="F298" s="30"/>
+      <c r="G298" s="30"/>
+      <c r="H298" s="30"/>
+      <c r="I298" s="30"/>
+      <c r="J298" s="30"/>
+      <c r="K298" s="30"/>
+      <c r="L298" s="30"/>
+      <c r="M298" s="30"/>
+      <c r="N298" s="30"/>
+      <c r="O298" s="30"/>
+      <c r="P298" s="30"/>
+      <c r="Q298" s="30"/>
+      <c r="R298" s="30"/>
+      <c r="S298" s="30"/>
+      <c r="T298" s="30"/>
+      <c r="U298" s="30"/>
+      <c r="V298" s="30"/>
+      <c r="W298" s="30"/>
+      <c r="X298" s="30"/>
+      <c r="Y298" s="30"/>
+      <c r="Z298" s="30"/>
     </row>
     <row r="299" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A299" s="30" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B299" s="30"/>
       <c r="C299" s="30"/>
@@ -11150,7 +11150,7 @@
     </row>
     <row r="300" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A300" s="30" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B300" s="30"/>
       <c r="C300" s="30"/>
@@ -11180,7 +11180,7 @@
     </row>
     <row r="301" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A301" s="30" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B301" s="30"/>
       <c r="C301" s="30"/>
@@ -11208,69 +11208,69 @@
       <c r="Y301" s="30"/>
       <c r="Z301" s="30"/>
     </row>
-    <row r="302" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
-      <c r="A302" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B302" s="30"/>
-      <c r="C302" s="30"/>
-      <c r="D302" s="30"/>
-      <c r="E302" s="30"/>
-      <c r="F302" s="30"/>
-      <c r="G302" s="30"/>
-      <c r="H302" s="30"/>
-      <c r="I302" s="30"/>
-      <c r="J302" s="30"/>
-      <c r="K302" s="30"/>
-      <c r="L302" s="30"/>
-      <c r="M302" s="30"/>
-      <c r="N302" s="30"/>
-      <c r="O302" s="30"/>
-      <c r="P302" s="30"/>
-      <c r="Q302" s="30"/>
-      <c r="R302" s="30"/>
-      <c r="S302" s="30"/>
-      <c r="T302" s="30"/>
-      <c r="U302" s="30"/>
-      <c r="V302" s="30"/>
-      <c r="W302" s="30"/>
-      <c r="X302" s="30"/>
-      <c r="Y302" s="30"/>
-      <c r="Z302" s="30"/>
-    </row>
-    <row r="303" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
-      <c r="A303" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B303" s="30"/>
-      <c r="C303" s="30"/>
-      <c r="D303" s="30"/>
-      <c r="E303" s="30"/>
-      <c r="F303" s="30"/>
-      <c r="G303" s="30"/>
-      <c r="H303" s="30"/>
-      <c r="I303" s="30"/>
-      <c r="J303" s="30"/>
-      <c r="K303" s="30"/>
-      <c r="L303" s="30"/>
-      <c r="M303" s="30"/>
-      <c r="N303" s="30"/>
-      <c r="O303" s="30"/>
-      <c r="P303" s="30"/>
-      <c r="Q303" s="30"/>
-      <c r="R303" s="30"/>
-      <c r="S303" s="30"/>
-      <c r="T303" s="30"/>
-      <c r="U303" s="30"/>
-      <c r="V303" s="30"/>
-      <c r="W303" s="30"/>
-      <c r="X303" s="30"/>
-      <c r="Y303" s="30"/>
-      <c r="Z303" s="30"/>
+    <row r="302" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" collapsed="1">
+      <c r="A302" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B302" s="23"/>
+      <c r="C302" s="23"/>
+      <c r="D302" s="23"/>
+      <c r="E302" s="23"/>
+      <c r="F302" s="23"/>
+      <c r="G302" s="23"/>
+      <c r="H302" s="23"/>
+      <c r="I302" s="23"/>
+      <c r="J302" s="23"/>
+      <c r="K302" s="23"/>
+      <c r="L302" s="23"/>
+      <c r="M302" s="23"/>
+      <c r="N302" s="23"/>
+      <c r="O302" s="23"/>
+      <c r="P302" s="23"/>
+      <c r="Q302" s="23"/>
+      <c r="R302" s="23"/>
+      <c r="S302" s="23"/>
+      <c r="T302" s="23"/>
+      <c r="U302" s="23"/>
+      <c r="V302" s="23"/>
+      <c r="W302" s="23"/>
+      <c r="X302" s="23"/>
+      <c r="Y302" s="23"/>
+      <c r="Z302" s="23"/>
+    </row>
+    <row r="303" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
+      <c r="A303" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B303" s="34"/>
+      <c r="C303" s="34"/>
+      <c r="D303" s="34"/>
+      <c r="E303" s="34"/>
+      <c r="F303" s="34"/>
+      <c r="G303" s="34"/>
+      <c r="H303" s="34"/>
+      <c r="I303" s="34"/>
+      <c r="J303" s="34"/>
+      <c r="K303" s="34"/>
+      <c r="L303" s="34"/>
+      <c r="M303" s="34"/>
+      <c r="N303" s="34"/>
+      <c r="O303" s="34"/>
+      <c r="P303" s="34"/>
+      <c r="Q303" s="34"/>
+      <c r="R303" s="34"/>
+      <c r="S303" s="34"/>
+      <c r="T303" s="34"/>
+      <c r="U303" s="34"/>
+      <c r="V303" s="34"/>
+      <c r="W303" s="34"/>
+      <c r="X303" s="34"/>
+      <c r="Y303" s="34"/>
+      <c r="Z303" s="34"/>
     </row>
     <row r="304" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A304" s="30" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="B304" s="30"/>
       <c r="C304" s="30"/>
@@ -11300,7 +11300,7 @@
     </row>
     <row r="305" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A305" s="30" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B305" s="30"/>
       <c r="C305" s="30"/>
@@ -11330,7 +11330,7 @@
     </row>
     <row r="306" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A306" s="30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B306" s="30"/>
       <c r="C306" s="30"/>
@@ -11358,39 +11358,39 @@
       <c r="Y306" s="30"/>
       <c r="Z306" s="30"/>
     </row>
-    <row r="307" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
-      <c r="A307" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B307" s="34"/>
-      <c r="C307" s="34"/>
-      <c r="D307" s="34"/>
-      <c r="E307" s="34"/>
-      <c r="F307" s="34"/>
-      <c r="G307" s="34"/>
-      <c r="H307" s="34"/>
-      <c r="I307" s="34"/>
-      <c r="J307" s="34"/>
-      <c r="K307" s="34"/>
-      <c r="L307" s="34"/>
-      <c r="M307" s="34"/>
-      <c r="N307" s="34"/>
-      <c r="O307" s="34"/>
-      <c r="P307" s="34"/>
-      <c r="Q307" s="34"/>
-      <c r="R307" s="34"/>
-      <c r="S307" s="34"/>
-      <c r="T307" s="34"/>
-      <c r="U307" s="34"/>
-      <c r="V307" s="34"/>
-      <c r="W307" s="34"/>
-      <c r="X307" s="34"/>
-      <c r="Y307" s="34"/>
-      <c r="Z307" s="34"/>
+    <row r="307" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
+      <c r="A307" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B307" s="30"/>
+      <c r="C307" s="30"/>
+      <c r="D307" s="30"/>
+      <c r="E307" s="30"/>
+      <c r="F307" s="30"/>
+      <c r="G307" s="30"/>
+      <c r="H307" s="30"/>
+      <c r="I307" s="30"/>
+      <c r="J307" s="30"/>
+      <c r="K307" s="30"/>
+      <c r="L307" s="30"/>
+      <c r="M307" s="30"/>
+      <c r="N307" s="30"/>
+      <c r="O307" s="30"/>
+      <c r="P307" s="30"/>
+      <c r="Q307" s="30"/>
+      <c r="R307" s="30"/>
+      <c r="S307" s="30"/>
+      <c r="T307" s="30"/>
+      <c r="U307" s="30"/>
+      <c r="V307" s="30"/>
+      <c r="W307" s="30"/>
+      <c r="X307" s="30"/>
+      <c r="Y307" s="30"/>
+      <c r="Z307" s="30"/>
     </row>
     <row r="308" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A308" s="30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B308" s="30"/>
       <c r="C308" s="30"/>
@@ -11420,7 +11420,7 @@
     </row>
     <row r="309" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A309" s="30" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="B309" s="30"/>
       <c r="C309" s="30"/>
@@ -11450,7 +11450,7 @@
     </row>
     <row r="310" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A310" s="30" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B310" s="30"/>
       <c r="C310" s="30"/>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="311" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A311" s="30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B311" s="30"/>
       <c r="C311" s="30"/>
@@ -11508,39 +11508,39 @@
       <c r="Y311" s="30"/>
       <c r="Z311" s="30"/>
     </row>
-    <row r="312" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
-      <c r="A312" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B312" s="30"/>
-      <c r="C312" s="30"/>
-      <c r="D312" s="30"/>
-      <c r="E312" s="30"/>
-      <c r="F312" s="30"/>
-      <c r="G312" s="30"/>
-      <c r="H312" s="30"/>
-      <c r="I312" s="30"/>
-      <c r="J312" s="30"/>
-      <c r="K312" s="30"/>
-      <c r="L312" s="30"/>
-      <c r="M312" s="30"/>
-      <c r="N312" s="30"/>
-      <c r="O312" s="30"/>
-      <c r="P312" s="30"/>
-      <c r="Q312" s="30"/>
-      <c r="R312" s="30"/>
-      <c r="S312" s="30"/>
-      <c r="T312" s="30"/>
-      <c r="U312" s="30"/>
-      <c r="V312" s="30"/>
-      <c r="W312" s="30"/>
-      <c r="X312" s="30"/>
-      <c r="Y312" s="30"/>
-      <c r="Z312" s="30"/>
+    <row r="312" ht="14.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
+      <c r="A312" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B312" s="34"/>
+      <c r="C312" s="34"/>
+      <c r="D312" s="34"/>
+      <c r="E312" s="34"/>
+      <c r="F312" s="34"/>
+      <c r="G312" s="34"/>
+      <c r="H312" s="34"/>
+      <c r="I312" s="34"/>
+      <c r="J312" s="34"/>
+      <c r="K312" s="34"/>
+      <c r="L312" s="34"/>
+      <c r="M312" s="34"/>
+      <c r="N312" s="34"/>
+      <c r="O312" s="34"/>
+      <c r="P312" s="34"/>
+      <c r="Q312" s="34"/>
+      <c r="R312" s="34"/>
+      <c r="S312" s="34"/>
+      <c r="T312" s="34"/>
+      <c r="U312" s="34"/>
+      <c r="V312" s="34"/>
+      <c r="W312" s="34"/>
+      <c r="X312" s="34"/>
+      <c r="Y312" s="34"/>
+      <c r="Z312" s="34"/>
     </row>
     <row r="313" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A313" s="30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B313" s="30"/>
       <c r="C313" s="30"/>
@@ -11570,7 +11570,7 @@
     </row>
     <row r="314" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A314" s="30" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B314" s="30"/>
       <c r="C314" s="30"/>
@@ -11598,39 +11598,39 @@
       <c r="Y314" s="30"/>
       <c r="Z314" s="30"/>
     </row>
-    <row r="315" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="A315" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B315" s="22"/>
-      <c r="C315" s="22"/>
-      <c r="D315" s="22"/>
-      <c r="E315" s="22"/>
-      <c r="F315" s="22"/>
-      <c r="G315" s="22"/>
-      <c r="H315" s="22"/>
-      <c r="I315" s="22"/>
-      <c r="J315" s="22"/>
-      <c r="K315" s="22"/>
-      <c r="L315" s="22"/>
-      <c r="M315" s="22"/>
-      <c r="N315" s="22"/>
-      <c r="O315" s="22"/>
-      <c r="P315" s="22"/>
-      <c r="Q315" s="22"/>
-      <c r="R315" s="22"/>
-      <c r="S315" s="22"/>
-      <c r="T315" s="22"/>
-      <c r="U315" s="22"/>
-      <c r="V315" s="22"/>
-      <c r="W315" s="22"/>
-      <c r="X315" s="22"/>
-      <c r="Y315" s="22"/>
-      <c r="Z315" s="22"/>
-    </row>
-    <row r="316" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="315" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
+      <c r="A315" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B315" s="30"/>
+      <c r="C315" s="30"/>
+      <c r="D315" s="30"/>
+      <c r="E315" s="30"/>
+      <c r="F315" s="30"/>
+      <c r="G315" s="30"/>
+      <c r="H315" s="30"/>
+      <c r="I315" s="30"/>
+      <c r="J315" s="30"/>
+      <c r="K315" s="30"/>
+      <c r="L315" s="30"/>
+      <c r="M315" s="30"/>
+      <c r="N315" s="30"/>
+      <c r="O315" s="30"/>
+      <c r="P315" s="30"/>
+      <c r="Q315" s="30"/>
+      <c r="R315" s="30"/>
+      <c r="S315" s="30"/>
+      <c r="T315" s="30"/>
+      <c r="U315" s="30"/>
+      <c r="V315" s="30"/>
+      <c r="W315" s="30"/>
+      <c r="X315" s="30"/>
+      <c r="Y315" s="30"/>
+      <c r="Z315" s="30"/>
+    </row>
+    <row r="316" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A316" s="30" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B316" s="30"/>
       <c r="C316" s="30"/>
@@ -11658,9 +11658,9 @@
       <c r="Y316" s="30"/>
       <c r="Z316" s="30"/>
     </row>
-    <row r="317" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="317" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A317" s="30" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="B317" s="30"/>
       <c r="C317" s="30"/>
@@ -11688,39 +11688,39 @@
       <c r="Y317" s="30"/>
       <c r="Z317" s="30"/>
     </row>
-    <row r="318" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="A318" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B318" s="22"/>
-      <c r="C318" s="22"/>
-      <c r="D318" s="22"/>
-      <c r="E318" s="22"/>
-      <c r="F318" s="22"/>
-      <c r="G318" s="22"/>
-      <c r="H318" s="22"/>
-      <c r="I318" s="22"/>
-      <c r="J318" s="22"/>
-      <c r="K318" s="22"/>
-      <c r="L318" s="22"/>
-      <c r="M318" s="22"/>
-      <c r="N318" s="22"/>
-      <c r="O318" s="22"/>
-      <c r="P318" s="22"/>
-      <c r="Q318" s="22"/>
-      <c r="R318" s="22"/>
-      <c r="S318" s="22"/>
-      <c r="T318" s="22"/>
-      <c r="U318" s="22"/>
-      <c r="V318" s="22"/>
-      <c r="W318" s="22"/>
-      <c r="X318" s="22"/>
-      <c r="Y318" s="22"/>
-      <c r="Z318" s="22"/>
-    </row>
-    <row r="319" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="318" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
+      <c r="A318" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B318" s="30"/>
+      <c r="C318" s="30"/>
+      <c r="D318" s="30"/>
+      <c r="E318" s="30"/>
+      <c r="F318" s="30"/>
+      <c r="G318" s="30"/>
+      <c r="H318" s="30"/>
+      <c r="I318" s="30"/>
+      <c r="J318" s="30"/>
+      <c r="K318" s="30"/>
+      <c r="L318" s="30"/>
+      <c r="M318" s="30"/>
+      <c r="N318" s="30"/>
+      <c r="O318" s="30"/>
+      <c r="P318" s="30"/>
+      <c r="Q318" s="30"/>
+      <c r="R318" s="30"/>
+      <c r="S318" s="30"/>
+      <c r="T318" s="30"/>
+      <c r="U318" s="30"/>
+      <c r="V318" s="30"/>
+      <c r="W318" s="30"/>
+      <c r="X318" s="30"/>
+      <c r="Y318" s="30"/>
+      <c r="Z318" s="30"/>
+    </row>
+    <row r="319" ht="14.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A319" s="30" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="B319" s="30"/>
       <c r="C319" s="30"/>
@@ -11748,145 +11748,155 @@
       <c r="Y319" s="30"/>
       <c r="Z319" s="30"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
-      <c r="A320" s="36"/>
-      <c r="B320" s="36"/>
-      <c r="C320" s="36"/>
-      <c r="D320" s="36"/>
-      <c r="E320" s="36"/>
-      <c r="F320" s="36"/>
-      <c r="G320" s="36"/>
-      <c r="H320" s="36"/>
-      <c r="I320" s="36"/>
-      <c r="J320" s="36"/>
-      <c r="K320" s="36"/>
-      <c r="L320" s="36"/>
-      <c r="M320" s="36"/>
-      <c r="N320" s="36"/>
-      <c r="O320" s="36"/>
-      <c r="P320" s="36"/>
-      <c r="Q320" s="36"/>
-      <c r="R320" s="36"/>
-      <c r="S320" s="36"/>
-      <c r="T320" s="36"/>
-      <c r="U320" s="36"/>
-      <c r="V320" s="36"/>
-      <c r="W320" s="36"/>
-      <c r="X320" s="36"/>
-      <c r="Y320" s="36"/>
-      <c r="Z320" s="36"/>
-    </row>
-    <row r="321" ht="14.25" customHeight="1">
-      <c r="A321" s="36"/>
-      <c r="B321" s="36"/>
-      <c r="C321" s="36"/>
-      <c r="D321" s="36"/>
-      <c r="E321" s="36"/>
-      <c r="F321" s="36"/>
-      <c r="G321" s="36"/>
-      <c r="H321" s="36"/>
-      <c r="I321" s="36"/>
-      <c r="J321" s="36"/>
-      <c r="K321" s="36"/>
-      <c r="L321" s="36"/>
-      <c r="M321" s="36"/>
-      <c r="N321" s="36"/>
-      <c r="O321" s="36"/>
-      <c r="P321" s="36"/>
-      <c r="Q321" s="36"/>
-      <c r="R321" s="36"/>
-      <c r="S321" s="36"/>
-      <c r="T321" s="36"/>
-      <c r="U321" s="36"/>
-      <c r="V321" s="36"/>
-      <c r="W321" s="36"/>
-      <c r="X321" s="36"/>
-      <c r="Y321" s="36"/>
-      <c r="Z321" s="36"/>
-    </row>
-    <row r="322" ht="14.25" customHeight="1">
-      <c r="A322" s="36"/>
-      <c r="B322" s="36"/>
-      <c r="C322" s="36"/>
-      <c r="D322" s="36"/>
-      <c r="E322" s="36"/>
-      <c r="F322" s="36"/>
-      <c r="G322" s="36"/>
-      <c r="H322" s="36"/>
-      <c r="I322" s="36"/>
-      <c r="J322" s="36"/>
-      <c r="K322" s="36"/>
-      <c r="L322" s="36"/>
-      <c r="M322" s="36"/>
-      <c r="N322" s="36"/>
-      <c r="O322" s="36"/>
-      <c r="P322" s="36"/>
-      <c r="Q322" s="36"/>
-      <c r="R322" s="36"/>
-      <c r="S322" s="36"/>
-      <c r="T322" s="36"/>
-      <c r="U322" s="36"/>
-      <c r="V322" s="36"/>
-      <c r="W322" s="36"/>
-      <c r="X322" s="36"/>
-      <c r="Y322" s="36"/>
-      <c r="Z322" s="36"/>
-    </row>
-    <row r="323" ht="14.25" customHeight="1">
-      <c r="A323" s="36"/>
-      <c r="B323" s="36"/>
-      <c r="C323" s="36"/>
-      <c r="D323" s="36"/>
-      <c r="E323" s="36"/>
-      <c r="F323" s="36"/>
-      <c r="G323" s="36"/>
-      <c r="H323" s="36"/>
-      <c r="I323" s="36"/>
-      <c r="J323" s="36"/>
-      <c r="K323" s="36"/>
-      <c r="L323" s="36"/>
-      <c r="M323" s="36"/>
-      <c r="N323" s="36"/>
-      <c r="O323" s="36"/>
-      <c r="P323" s="36"/>
-      <c r="Q323" s="36"/>
-      <c r="R323" s="36"/>
-      <c r="S323" s="36"/>
-      <c r="T323" s="36"/>
-      <c r="U323" s="36"/>
-      <c r="V323" s="36"/>
-      <c r="W323" s="36"/>
-      <c r="X323" s="36"/>
-      <c r="Y323" s="36"/>
-      <c r="Z323" s="36"/>
-    </row>
-    <row r="324" ht="14.25" customHeight="1">
-      <c r="A324" s="36"/>
-      <c r="B324" s="36"/>
-      <c r="C324" s="36"/>
-      <c r="D324" s="36"/>
-      <c r="E324" s="36"/>
-      <c r="F324" s="36"/>
-      <c r="G324" s="36"/>
-      <c r="H324" s="36"/>
-      <c r="I324" s="36"/>
-      <c r="J324" s="36"/>
-      <c r="K324" s="36"/>
-      <c r="L324" s="36"/>
-      <c r="M324" s="36"/>
-      <c r="N324" s="36"/>
-      <c r="O324" s="36"/>
-      <c r="P324" s="36"/>
-      <c r="Q324" s="36"/>
-      <c r="R324" s="36"/>
-      <c r="S324" s="36"/>
-      <c r="T324" s="36"/>
-      <c r="U324" s="36"/>
-      <c r="V324" s="36"/>
-      <c r="W324" s="36"/>
-      <c r="X324" s="36"/>
-      <c r="Y324" s="36"/>
-      <c r="Z324" s="36"/>
+    <row r="320" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A320" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B320" s="22"/>
+      <c r="C320" s="22"/>
+      <c r="D320" s="22"/>
+      <c r="E320" s="22"/>
+      <c r="F320" s="22"/>
+      <c r="G320" s="22"/>
+      <c r="H320" s="22"/>
+      <c r="I320" s="22"/>
+      <c r="J320" s="22"/>
+      <c r="K320" s="22"/>
+      <c r="L320" s="22"/>
+      <c r="M320" s="22"/>
+      <c r="N320" s="22"/>
+      <c r="O320" s="22"/>
+      <c r="P320" s="22"/>
+      <c r="Q320" s="22"/>
+      <c r="R320" s="22"/>
+      <c r="S320" s="22"/>
+      <c r="T320" s="22"/>
+      <c r="U320" s="22"/>
+      <c r="V320" s="22"/>
+      <c r="W320" s="22"/>
+      <c r="X320" s="22"/>
+      <c r="Y320" s="22"/>
+      <c r="Z320" s="22"/>
+    </row>
+    <row r="321" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A321" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B321" s="30"/>
+      <c r="C321" s="30"/>
+      <c r="D321" s="30"/>
+      <c r="E321" s="30"/>
+      <c r="F321" s="30"/>
+      <c r="G321" s="30"/>
+      <c r="H321" s="30"/>
+      <c r="I321" s="30"/>
+      <c r="J321" s="30"/>
+      <c r="K321" s="30"/>
+      <c r="L321" s="30"/>
+      <c r="M321" s="30"/>
+      <c r="N321" s="30"/>
+      <c r="O321" s="30"/>
+      <c r="P321" s="30"/>
+      <c r="Q321" s="30"/>
+      <c r="R321" s="30"/>
+      <c r="S321" s="30"/>
+      <c r="T321" s="30"/>
+      <c r="U321" s="30"/>
+      <c r="V321" s="30"/>
+      <c r="W321" s="30"/>
+      <c r="X321" s="30"/>
+      <c r="Y321" s="30"/>
+      <c r="Z321" s="30"/>
+    </row>
+    <row r="322" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A322" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B322" s="30"/>
+      <c r="C322" s="30"/>
+      <c r="D322" s="30"/>
+      <c r="E322" s="30"/>
+      <c r="F322" s="30"/>
+      <c r="G322" s="30"/>
+      <c r="H322" s="30"/>
+      <c r="I322" s="30"/>
+      <c r="J322" s="30"/>
+      <c r="K322" s="30"/>
+      <c r="L322" s="30"/>
+      <c r="M322" s="30"/>
+      <c r="N322" s="30"/>
+      <c r="O322" s="30"/>
+      <c r="P322" s="30"/>
+      <c r="Q322" s="30"/>
+      <c r="R322" s="30"/>
+      <c r="S322" s="30"/>
+      <c r="T322" s="30"/>
+      <c r="U322" s="30"/>
+      <c r="V322" s="30"/>
+      <c r="W322" s="30"/>
+      <c r="X322" s="30"/>
+      <c r="Y322" s="30"/>
+      <c r="Z322" s="30"/>
+    </row>
+    <row r="323" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="A323" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B323" s="22"/>
+      <c r="C323" s="22"/>
+      <c r="D323" s="22"/>
+      <c r="E323" s="22"/>
+      <c r="F323" s="22"/>
+      <c r="G323" s="22"/>
+      <c r="H323" s="22"/>
+      <c r="I323" s="22"/>
+      <c r="J323" s="22"/>
+      <c r="K323" s="22"/>
+      <c r="L323" s="22"/>
+      <c r="M323" s="22"/>
+      <c r="N323" s="22"/>
+      <c r="O323" s="22"/>
+      <c r="P323" s="22"/>
+      <c r="Q323" s="22"/>
+      <c r="R323" s="22"/>
+      <c r="S323" s="22"/>
+      <c r="T323" s="22"/>
+      <c r="U323" s="22"/>
+      <c r="V323" s="22"/>
+      <c r="W323" s="22"/>
+      <c r="X323" s="22"/>
+      <c r="Y323" s="22"/>
+      <c r="Z323" s="22"/>
+    </row>
+    <row r="324" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="A324" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B324" s="30"/>
+      <c r="C324" s="30"/>
+      <c r="D324" s="30"/>
+      <c r="E324" s="30"/>
+      <c r="F324" s="30"/>
+      <c r="G324" s="30"/>
+      <c r="H324" s="30"/>
+      <c r="I324" s="30"/>
+      <c r="J324" s="30"/>
+      <c r="K324" s="30"/>
+      <c r="L324" s="30"/>
+      <c r="M324" s="30"/>
+      <c r="N324" s="30"/>
+      <c r="O324" s="30"/>
+      <c r="P324" s="30"/>
+      <c r="Q324" s="30"/>
+      <c r="R324" s="30"/>
+      <c r="S324" s="30"/>
+      <c r="T324" s="30"/>
+      <c r="U324" s="30"/>
+      <c r="V324" s="30"/>
+      <c r="W324" s="30"/>
+      <c r="X324" s="30"/>
+      <c r="Y324" s="30"/>
+      <c r="Z324" s="30"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
       <c r="A325" s="36"/>
@@ -12336,11 +12346,146 @@
       <c r="Y340" s="36"/>
       <c r="Z340" s="36"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1">
+      <c r="A341" s="36"/>
+      <c r="B341" s="36"/>
+      <c r="C341" s="36"/>
+      <c r="D341" s="36"/>
+      <c r="E341" s="36"/>
+      <c r="F341" s="36"/>
+      <c r="G341" s="36"/>
+      <c r="H341" s="36"/>
+      <c r="I341" s="36"/>
+      <c r="J341" s="36"/>
+      <c r="K341" s="36"/>
+      <c r="L341" s="36"/>
+      <c r="M341" s="36"/>
+      <c r="N341" s="36"/>
+      <c r="O341" s="36"/>
+      <c r="P341" s="36"/>
+      <c r="Q341" s="36"/>
+      <c r="R341" s="36"/>
+      <c r="S341" s="36"/>
+      <c r="T341" s="36"/>
+      <c r="U341" s="36"/>
+      <c r="V341" s="36"/>
+      <c r="W341" s="36"/>
+      <c r="X341" s="36"/>
+      <c r="Y341" s="36"/>
+      <c r="Z341" s="36"/>
+    </row>
+    <row r="342" ht="14.25" customHeight="1">
+      <c r="A342" s="36"/>
+      <c r="B342" s="36"/>
+      <c r="C342" s="36"/>
+      <c r="D342" s="36"/>
+      <c r="E342" s="36"/>
+      <c r="F342" s="36"/>
+      <c r="G342" s="36"/>
+      <c r="H342" s="36"/>
+      <c r="I342" s="36"/>
+      <c r="J342" s="36"/>
+      <c r="K342" s="36"/>
+      <c r="L342" s="36"/>
+      <c r="M342" s="36"/>
+      <c r="N342" s="36"/>
+      <c r="O342" s="36"/>
+      <c r="P342" s="36"/>
+      <c r="Q342" s="36"/>
+      <c r="R342" s="36"/>
+      <c r="S342" s="36"/>
+      <c r="T342" s="36"/>
+      <c r="U342" s="36"/>
+      <c r="V342" s="36"/>
+      <c r="W342" s="36"/>
+      <c r="X342" s="36"/>
+      <c r="Y342" s="36"/>
+      <c r="Z342" s="36"/>
+    </row>
+    <row r="343" ht="14.25" customHeight="1">
+      <c r="A343" s="36"/>
+      <c r="B343" s="36"/>
+      <c r="C343" s="36"/>
+      <c r="D343" s="36"/>
+      <c r="E343" s="36"/>
+      <c r="F343" s="36"/>
+      <c r="G343" s="36"/>
+      <c r="H343" s="36"/>
+      <c r="I343" s="36"/>
+      <c r="J343" s="36"/>
+      <c r="K343" s="36"/>
+      <c r="L343" s="36"/>
+      <c r="M343" s="36"/>
+      <c r="N343" s="36"/>
+      <c r="O343" s="36"/>
+      <c r="P343" s="36"/>
+      <c r="Q343" s="36"/>
+      <c r="R343" s="36"/>
+      <c r="S343" s="36"/>
+      <c r="T343" s="36"/>
+      <c r="U343" s="36"/>
+      <c r="V343" s="36"/>
+      <c r="W343" s="36"/>
+      <c r="X343" s="36"/>
+      <c r="Y343" s="36"/>
+      <c r="Z343" s="36"/>
+    </row>
+    <row r="344" ht="14.25" customHeight="1">
+      <c r="A344" s="36"/>
+      <c r="B344" s="36"/>
+      <c r="C344" s="36"/>
+      <c r="D344" s="36"/>
+      <c r="E344" s="36"/>
+      <c r="F344" s="36"/>
+      <c r="G344" s="36"/>
+      <c r="H344" s="36"/>
+      <c r="I344" s="36"/>
+      <c r="J344" s="36"/>
+      <c r="K344" s="36"/>
+      <c r="L344" s="36"/>
+      <c r="M344" s="36"/>
+      <c r="N344" s="36"/>
+      <c r="O344" s="36"/>
+      <c r="P344" s="36"/>
+      <c r="Q344" s="36"/>
+      <c r="R344" s="36"/>
+      <c r="S344" s="36"/>
+      <c r="T344" s="36"/>
+      <c r="U344" s="36"/>
+      <c r="V344" s="36"/>
+      <c r="W344" s="36"/>
+      <c r="X344" s="36"/>
+      <c r="Y344" s="36"/>
+      <c r="Z344" s="36"/>
+    </row>
+    <row r="345" ht="14.25" customHeight="1">
+      <c r="A345" s="36"/>
+      <c r="B345" s="36"/>
+      <c r="C345" s="36"/>
+      <c r="D345" s="36"/>
+      <c r="E345" s="36"/>
+      <c r="F345" s="36"/>
+      <c r="G345" s="36"/>
+      <c r="H345" s="36"/>
+      <c r="I345" s="36"/>
+      <c r="J345" s="36"/>
+      <c r="K345" s="36"/>
+      <c r="L345" s="36"/>
+      <c r="M345" s="36"/>
+      <c r="N345" s="36"/>
+      <c r="O345" s="36"/>
+      <c r="P345" s="36"/>
+      <c r="Q345" s="36"/>
+      <c r="R345" s="36"/>
+      <c r="S345" s="36"/>
+      <c r="T345" s="36"/>
+      <c r="U345" s="36"/>
+      <c r="V345" s="36"/>
+      <c r="W345" s="36"/>
+      <c r="X345" s="36"/>
+      <c r="Y345" s="36"/>
+      <c r="Z345" s="36"/>
+    </row>
     <row r="346" ht="14.25" customHeight="1"/>
     <row r="347" ht="14.25" customHeight="1"/>
     <row r="348" ht="14.25" customHeight="1"/>
@@ -13030,6 +13175,11 @@
     <row r="1032" ht="14.25" customHeight="1"/>
     <row r="1033" ht="14.25" customHeight="1"/>
     <row r="1034" ht="14.25" customHeight="1"/>
+    <row r="1035" ht="14.25" customHeight="1"/>
+    <row r="1036" ht="14.25" customHeight="1"/>
+    <row r="1037" ht="14.25" customHeight="1"/>
+    <row r="1038" ht="14.25" customHeight="1"/>
+    <row r="1039" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
